--- a/out_test.xlsx
+++ b/out_test.xlsx
@@ -130,7 +130,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1905000" cy="1905000"/>
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L232"/>
+  <dimension ref="A2:L234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -458,133 +458,76 @@
     <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="100" customHeight="1">
-      <c r="A1" t="inlineStr">
+    <row r="0" ht="20" customHeight="1"/>
+    <row r="1" ht="100" customHeight="1"/>
+    <row r="2" ht="100" customHeight="1"/>
+    <row r="3" ht="100" customHeight="1">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>TOTAL
 QTY</t>
         </is>
       </c>
-      <c r="E1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I1" t="n">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
         <v>5</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="100" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7U-BOTTOM.ASM</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-    </row>
-    <row r="3" ht="100" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7U-BOTTOM-RIVET.ASM</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4" ht="100" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RM7922000201-101-BOTTOM-BASE.ASM</t>
+          <t>7U-BOTTOM.ASM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -593,7 +536,7 @@
     <row r="5" ht="100" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RM7922000201-101-BOTTOM-BASE.PRT</t>
+          <t>7U-BOTTOM-RIVET.ASM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -606,16 +549,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -623,7 +566,7 @@
     <row r="6" ht="100" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S06.PRT</t>
+          <t>RM7922000201-101-BOTTOM-BASE.ASM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -636,16 +579,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -653,16 +596,16 @@
     <row r="7" ht="100" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S01.PRT</t>
+          <t>RM7922000201-101-BOTTOM-BASE.PRT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -683,16 +626,16 @@
     <row r="8" ht="100" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S10.PRT</t>
+          <t>RM7922000201-101-S06.PRT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -713,16 +656,16 @@
     <row r="9" ht="100" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S11.PRT</t>
+          <t>RM7922000201-101-S01.PRT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -743,16 +686,16 @@
     <row r="10" ht="100" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RM59901-101-S01.PRT</t>
+          <t>RM7922000201-101-S10.PRT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -773,7 +716,7 @@
     <row r="11" ht="100" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S05.PRT</t>
+          <t>RM7922000201-101-S11.PRT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -803,16 +746,16 @@
     <row r="12" ht="100" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S08.PRT</t>
+          <t>RM59901-101-S01.PRT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -833,7 +776,7 @@
     <row r="13" ht="100" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S12.PRT</t>
+          <t>RM7922000201-101-S05.PRT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -863,16 +806,16 @@
     <row r="14" ht="100" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S09.PRT</t>
+          <t>RM7922000201-101-S08.PRT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -893,16 +836,16 @@
     <row r="15" ht="100" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S03.PRT</t>
+          <t>RM7922000201-101-S12.PRT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -923,16 +866,16 @@
     <row r="16" ht="100" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S04.PRT</t>
+          <t>RM7922000201-101-S09.PRT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -953,16 +896,16 @@
     <row r="17" ht="100" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RM7922000201-101-S13.PRT</t>
+          <t>RM7922000201-101-S03.PRT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -983,29 +926,29 @@
     <row r="18" ht="100" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RM7922000201-102-COV-TOP-FRONT.ASM</t>
+          <t>RM7922000201-101-S04.PRT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1013,7 +956,7 @@
     <row r="19" ht="100" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RM7922000201-102-COV-TOP-FRONT.PRT</t>
+          <t>RM7922000201-101-S13.PRT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1043,29 +986,29 @@
     <row r="20" ht="100" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RM7922000201-102-S01.PRT</t>
+          <t>RM7922000201-102-COV-TOP-FRONT.ASM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1073,16 +1016,16 @@
     <row r="21" ht="100" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SI-0135-60H703200-022.PRT</t>
+          <t>RM7922000201-102-COV-TOP-FRONT.PRT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1103,29 +1046,29 @@
     <row r="22" ht="100" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7U-BOTTOM-BASE-SUPPORT.ASM</t>
+          <t>RM7922000201-102-S01.PRT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1133,16 +1076,16 @@
     <row r="23" ht="100" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RM7922000201-105-BOTTOM-SUPPORT.ASM</t>
+          <t>SI-0135-60H703200-022.PRT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1163,7 +1106,7 @@
     <row r="24" ht="100" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RM7922000201-105-BOTTOM-SUPPORT.PRT</t>
+          <t>7U-BOTTOM-BASE-SUPPORT.ASM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1176,54 +1119,54 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
     </row>
     <row r="25" ht="100" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SI-0123-60H703000-155.PRT</t>
+          <t>RM7922000201-105-BOTTOM-SUPPORT.ASM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
     </row>
     <row r="26" ht="100" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RM7922000201-106-BOTTOM-PAR-V.ASM</t>
+          <t>RM7922000201-105-BOTTOM-SUPPORT.PRT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1236,33 +1179,33 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
     </row>
     <row r="27" ht="100" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RM7922000201-106-BOTTOM-PAR-V.PRT</t>
+          <t>SI-0123-60H703000-155.PRT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1283,7 +1226,7 @@
     <row r="28" ht="100" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RM7922000201-106-S01.PRT</t>
+          <t>RM7922000201-106-BOTTOM-PAR-V.ASM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1296,54 +1239,54 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
     </row>
     <row r="29" ht="100" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>RM7922000201-106-BOTTOM-PAR-V.PRT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
     </row>
     <row r="30" ht="100" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RM7922000201-107-BOTTOM-PAR-H.ASM</t>
+          <t>RM7922000201-106-S01.PRT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1356,33 +1299,33 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
     </row>
     <row r="31" ht="100" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RM7922000201-107-BOTTOM-PAR-H.PRT</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1403,29 +1346,29 @@
     <row r="32" ht="100" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RM7922000201-107-S01.PRT</t>
+          <t>RM7922000201-107-BOTTOM-PAR-H.ASM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1433,16 +1376,16 @@
     <row r="33" ht="100" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RM7922000201-107-S02.PRT</t>
+          <t>RM7922000201-107-BOTTOM-PAR-H.PRT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1463,29 +1406,29 @@
     <row r="34" ht="100" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RM7922000201-108-CANISTER-BAR.ASM</t>
+          <t>RM7922000201-107-S01.PRT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -1493,16 +1436,16 @@
     <row r="35" ht="100" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RM7922000201-108-CANISTER-BAR.PRT</t>
+          <t>RM7922000201-107-S02.PRT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1523,29 +1466,29 @@
     <row r="36" ht="100" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RM7922000201-108-S01.PRT</t>
+          <t>RM7922000201-108-CANISTER-BAR.ASM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1553,16 +1496,16 @@
     <row r="37" ht="100" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BUSHING.PRT</t>
+          <t>RM7922000201-108-CANISTER-BAR.PRT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1583,7 +1526,7 @@
     <row r="38" ht="100" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GUIDE-STD.PRT</t>
+          <t>RM7922000201-108-S01.PRT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1613,7 +1556,7 @@
     <row r="39" ht="100" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>BUSHING.PRT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1622,7 +1565,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1643,7 +1586,7 @@
     <row r="40" ht="100" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RM7922000201-109-TOP-PUSH-BKT.PRT</t>
+          <t>GUIDE-STD.PRT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1656,16 +1599,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -1673,29 +1616,29 @@
     <row r="41" ht="100" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RM7922000201-CHASSIS-SUP-BKT-L.ASM</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -1703,29 +1646,29 @@
     <row r="42" ht="100" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RM7922000201-110-CHASSIS-SUP-BK.ASM</t>
+          <t>RM7922000201-109-TOP-PUSH-BKT.PRT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -1733,7 +1676,7 @@
     <row r="43" ht="100" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RM7922000201-110-CHASSIS-SUP-BK.PRT</t>
+          <t>RM7922000201-CHASSIS-SUP-BKT-L.ASM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1746,24 +1689,24 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
     </row>
     <row r="44" ht="100" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NU-0018-60H303240-002.PRT</t>
+          <t>RM7922000201-110-CHASSIS-SUP-BK.ASM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1772,28 +1715,28 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
     </row>
     <row r="45" ht="100" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2U_CHASSIS_YSKS-69172-ZI_1.PRT</t>
+          <t>RM7922000201-110-CHASSIS-SUP-BK.PRT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1823,16 +1766,16 @@
     <row r="46" ht="100" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A052-L2_3.PRT</t>
+          <t>NU-0018-60H303240-002.PRT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1853,7 +1796,7 @@
     <row r="47" ht="100" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RM7922000201-SOFT-STOP-COVER-L.ASM</t>
+          <t>2U_CHASSIS_YSKS-69172-ZI_1.PRT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1866,33 +1809,33 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
     </row>
     <row r="48" ht="100" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RM7922000201-418-HINGE-BKT-L.PRT</t>
+          <t>RIVET-60H453232A052-L2_3.PRT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1913,37 +1856,37 @@
     <row r="49" ht="100" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RM7922000201-419-SOFTSTOP-CVR-L.ASM</t>
+          <t>RM7922000201-SOFT-STOP-COVER-L.ASM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
     </row>
     <row r="50" ht="100" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RM7922000201-419-SOFTSTOP-CVR-L.PRT</t>
+          <t>RM7922000201-418-HINGE-BKT-L.PRT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1952,58 +1895,58 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
     </row>
     <row r="51" ht="100" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RM7922000201-417-S01.PRT</t>
+          <t>RM7922000201-419-SOFTSTOP-CVR-L.ASM</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
     </row>
     <row r="52" ht="100" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RM7922000201-355-COVER-SPRING.PRT</t>
+          <t>RM7922000201-419-SOFTSTOP-CVR-L.PRT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2012,67 +1955,67 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
     </row>
     <row r="53" ht="100" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HG-209-031-01_A_-20150311.PRT</t>
+          <t>RM7922000201-417-S01.PRT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
     </row>
     <row r="54" ht="100" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>RM7922000201-355-COVER-SPRING.PRT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2093,7 +2036,7 @@
     <row r="55" ht="100" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RM7922000201-243-PULL-OUT-CARD.PRT</t>
+          <t>HG-209-031-01_A_-20150311.PRT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2102,21 +2045,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
     </row>
@@ -2136,46 +2079,46 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
     </row>
     <row r="57" ht="100" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RM7922000201-CHASSIS-SUP-BKT-R.ASM</t>
+          <t>RM7922000201-243-PULL-OUT-CARD.PRT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -2183,16 +2126,16 @@
     <row r="58" ht="100" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RM7922000201-111-CHAS-SUP-BKT-R.ASM</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2213,7 +2156,7 @@
     <row r="59" ht="100" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RM7922000201-111-CHAS-SUP-BKT-R.PRT</t>
+          <t>RM7922000201-CHASSIS-SUP-BKT-R.ASM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2226,24 +2169,24 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
     </row>
     <row r="60" ht="100" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NU-0018-60H303240-002.PRT</t>
+          <t>RM7922000201-111-CHAS-SUP-BKT-R.ASM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2252,37 +2195,37 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
     </row>
     <row r="61" ht="100" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A052-L2_3.PRT</t>
+          <t>RM7922000201-111-CHAS-SUP-BKT-R.PRT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2303,7 +2246,7 @@
     <row r="62" ht="100" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RM7922000201-SOFT-STOP-COVER-R.ASM</t>
+          <t>NU-0018-60H303240-002.PRT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2312,37 +2255,37 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
     </row>
     <row r="63" ht="100" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RM7922000201-416-HINGE-BKT-R.PRT</t>
+          <t>RIVET-60H453232A052-L2_3.PRT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2363,37 +2306,37 @@
     <row r="64" ht="100" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RM7922000201-417-SOFTSTOP-CVR-R.ASM</t>
+          <t>RM7922000201-SOFT-STOP-COVER-R.ASM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
     </row>
     <row r="65" ht="100" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RM7922000201-417-SOFTSTOP-CVR-R.PRT</t>
+          <t>RM7922000201-416-HINGE-BKT-R.PRT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2402,88 +2345,88 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
     </row>
     <row r="66" ht="100" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RM7922000201-417-S01.PRT</t>
+          <t>RM7922000201-417-SOFTSTOP-CVR-R.ASM</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
     </row>
     <row r="67" ht="100" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HG-209-031-01_A_-20150311.PRT</t>
+          <t>RM7922000201-417-SOFTSTOP-CVR-R.PRT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
     </row>
     <row r="68" ht="100" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RM7922000201-355-COVER-SPRING.PRT</t>
+          <t>RM7922000201-417-S01.PRT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2492,37 +2435,37 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
     </row>
     <row r="69" ht="100" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>HG-209-031-01_A_-20150311.PRT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2543,76 +2486,76 @@
     <row r="70" ht="100" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>RM7922000201-355-COVER-SPRING.PRT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
     </row>
     <row r="71" ht="100" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RM7922000201-248-CROSS-BAR.ASM</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
     </row>
     <row r="72" ht="100" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RM7922000201-248-CROSS-BAR.PRT</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2633,7 +2576,7 @@
     <row r="73" ht="100" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RM7922000201-TOP-AIR-DUCT.ASM</t>
+          <t>RM7922000201-248-CROSS-BAR.ASM</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2663,7 +2606,7 @@
     <row r="74" ht="100" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RM7922000201-201-TOP-AIR-DUCT.ASM</t>
+          <t>RM7922000201-248-CROSS-BAR.PRT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2693,7 +2636,7 @@
     <row r="75" ht="100" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RM7922000201-201-TOP-AIR-DUCT.PRT</t>
+          <t>RM7922000201-TOP-AIR-DUCT.ASM</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2706,63 +2649,63 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
     </row>
     <row r="76" ht="100" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RM7922000201-201-S02.PRT</t>
+          <t>RM7922000201-201-TOP-AIR-DUCT.ASM</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
     </row>
     <row r="77" ht="100" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RM7922000201-201-S03.PRT</t>
+          <t>RM7922000201-201-TOP-AIR-DUCT.PRT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2783,67 +2726,67 @@
     <row r="78" ht="100" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RM7922000201-321-AIRDUCT.PRT</t>
+          <t>RM7922000201-201-S02.PRT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
     </row>
     <row r="79" ht="100" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SCREW-60H151103-043.PRT</t>
+          <t>RM7922000201-201-S03.PRT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
     </row>
     <row r="80" ht="100" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RM7922000201-REAR-WINDOW-ASSY.ASM</t>
+          <t>RM7922000201-321-AIRDUCT.PRT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2856,16 +2799,16 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -2873,16 +2816,16 @@
     <row r="81" ht="100" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RM7922000201-103-REAR-WINDOW.ASM</t>
+          <t>SCREW-60H151103-043.PRT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2903,7 +2846,7 @@
     <row r="82" ht="100" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RM7922000201-103-REAR-WINDOW.PRT</t>
+          <t>RM7922000201-REAR-WINDOW-ASSY.ASM</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2916,24 +2859,24 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
     </row>
     <row r="83" ht="100" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ST-0309-60H703103-541.PRT</t>
+          <t>RM7922000201-103-REAR-WINDOW.ASM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -2942,37 +2885,37 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
     </row>
     <row r="84" ht="100" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RM7922000201-103-S01.PRT</t>
+          <t>RM7922000201-103-REAR-WINDOW.PRT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2993,16 +2936,16 @@
     <row r="85" ht="100" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RM7922000201-103-S02.PRT</t>
+          <t>ST-0309-60H703103-541.PRT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3023,46 +2966,46 @@
     <row r="86" ht="100" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RM7922000201-174-REAR-WINDOW.ASM</t>
+          <t>RM7922000201-103-S01.PRT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
     </row>
     <row r="87" ht="100" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RM7922000201-174-REAR-WINDOW.PRT</t>
+          <t>RM7922000201-103-S02.PRT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3083,7 +3026,7 @@
     <row r="88" ht="100" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ST-0309-60H703103-541.PRT</t>
+          <t>RM7922000201-174-REAR-WINDOW.ASM</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3092,37 +3035,37 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
     </row>
     <row r="89" ht="100" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RM7922000201-103-S01.PRT</t>
+          <t>RM7922000201-174-REAR-WINDOW.PRT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3143,16 +3086,16 @@
     <row r="90" ht="100" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RM7922000201-103-S02.PRT</t>
+          <t>ST-0309-60H703103-541.PRT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3173,46 +3116,46 @@
     <row r="91" ht="100" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RM7922000201-177-REAR-WINDOW.ASM</t>
+          <t>RM7922000201-103-S01.PRT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
     </row>
     <row r="92" ht="100" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RM7922000201-177-REAR-WINDOW.PRT</t>
+          <t>RM7922000201-103-S02.PRT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3233,7 +3176,7 @@
     <row r="93" ht="100" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ST-0309-60H703103-541.PRT</t>
+          <t>RM7922000201-177-REAR-WINDOW.ASM</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3242,37 +3185,37 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
     </row>
     <row r="94" ht="100" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RM7922000201-103-S01.PRT</t>
+          <t>RM7922000201-177-REAR-WINDOW.PRT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3293,16 +3236,16 @@
     <row r="95" ht="100" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RM7922000201-103-S02.PRT</t>
+          <t>ST-0309-60H703103-541.PRT</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3323,16 +3266,16 @@
     <row r="96" ht="100" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RM7922000201-177-S01.PRT</t>
+          <t>RM7922000201-103-S01.PRT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3353,12 +3296,12 @@
     <row r="97" ht="100" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NU-0033-60H323103-261.PRT</t>
+          <t>RM7922000201-103-S02.PRT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3383,46 +3326,46 @@
     <row r="98" ht="100" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RM7922000201-140-BAR-PROTECTOR.ASM</t>
+          <t>RM7922000201-177-S01.PRT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
     </row>
     <row r="99" ht="100" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RM7922000201-140-BAR-PROTECTOR.PRT</t>
+          <t>NU-0033-60H323103-261.PRT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3443,37 +3386,37 @@
     <row r="100" ht="100" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>RM7922000201-140-BAR-PROTECTOR.ASM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
     </row>
     <row r="101" ht="100" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RM7922000201-178-REARWIN-SUP-BK.PRT</t>
+          <t>RM7922000201-140-BAR-PROTECTOR.PRT</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3482,58 +3425,58 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
     </row>
     <row r="102" ht="100" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RM7922000201-179-REARWIN-SUP-BK.PRT</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
     </row>
     <row r="103" ht="100" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RM7922000201-196-REAR-NFC-SUP.ASM</t>
+          <t>RM7922000201-178-REARWIN-SUP-BK.PRT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -3563,7 +3506,7 @@
     <row r="104" ht="100" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RM7922000201-196-REAR-NFC-SUP.PRT</t>
+          <t>RM7922000201-179-REARWIN-SUP-BK.PRT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -3576,93 +3519,93 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
     </row>
     <row r="105" ht="100" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RIVET-60H453203A001.PRT</t>
+          <t>RM7922000201-196-REAR-NFC-SUP.ASM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
     </row>
     <row r="106" ht="100" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RM7922000201-197-CROSS-BAR.ASM</t>
+          <t>RM7922000201-196-REAR-NFC-SUP.PRT</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
     </row>
     <row r="107" ht="100" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RM7922000201-197-CROSS-BAR.PRT</t>
+          <t>RIVET-60H453203A001.PRT</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3683,42 +3626,42 @@
     <row r="108" ht="100" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RM7922000201-197-S01.PRT</t>
+          <t>RM7922000201-197-CROSS-BAR.ASM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
     </row>
     <row r="109" ht="100" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RM7922000201-249-CROSS-BAR-ZN.ASM</t>
+          <t>RM7922000201-197-CROSS-BAR.PRT</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3726,33 +3669,33 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
     </row>
     <row r="110" ht="100" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RM7922000201-249-CROSS-BAR-ZN.PRT</t>
+          <t>RM7922000201-197-S01.PRT</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3773,16 +3716,16 @@
     <row r="111" ht="100" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RD-22SEP-22客戶_20220930_.PRT</t>
+          <t>RM7922000201-249-CROSS-BAR-ZN.ASM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3803,46 +3746,46 @@
     <row r="112" ht="100" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SCREW-60H151103-042.PRT</t>
+          <t>RM7922000201-249-CROSS-BAR-ZN.PRT</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
     </row>
     <row r="113" ht="100" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-059.PRT</t>
+          <t>RD-22SEP-22客戶_20220930_.PRT</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3863,16 +3806,16 @@
     <row r="114" ht="100" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>SCREW-60H151103-042.PRT</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3893,16 +3836,16 @@
     <row r="115" ht="100" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RM7922000201-244-CABLE-CLIP.PRT</t>
+          <t>SCREW-60H141103-059.PRT</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3923,16 +3866,16 @@
     <row r="116" ht="100" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RM7922000201-2XX-CABLE-CLIP.PRT</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3953,16 +3896,16 @@
     <row r="117" ht="100" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RM7922000201-1XX-BRACKET-1.PRT</t>
+          <t>RM7922000201-244-CABLE-CLIP.PRT</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3983,16 +3926,16 @@
     <row r="118" ht="100" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RIVET-60H453032-032.PRT</t>
+          <t>RM7922000201-2XX-CABLE-CLIP.PRT</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4013,29 +3956,29 @@
     <row r="119" ht="100" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RM7922000201-CHASSIS-BP-SUP-BKT.ASM</t>
+          <t>RM7922000201-1XX-BRACKET-1.PRT</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
@@ -4043,16 +3986,16 @@
     <row r="120" ht="100" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RM7922000201-173-BD-SUP-BKT.ASM</t>
+          <t>RIVET-60H453032-032.PRT</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4073,12 +4016,12 @@
     <row r="121" ht="100" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RM7922000201-173-BD-SUP-BKT.PRT</t>
+          <t>RM7922000201-CHASSIS-BP-SUP-BKT.ASM</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4086,93 +4029,93 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
     </row>
     <row r="122" ht="100" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RM7922000201-173-S01.PRT</t>
+          <t>RM7922000201-173-BD-SUP-BKT.ASM</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
     </row>
     <row r="123" ht="100" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RM7922000201-235-SLIDING-HOLDER.ASM</t>
+          <t>RM7922000201-173-BD-SUP-BKT.PRT</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
     </row>
     <row r="124" ht="100" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RM7922000201-235-SLIDING-HOLDER.PRT</t>
+          <t>RM7922000201-173-S01.PRT</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4193,119 +4136,119 @@
     <row r="125" ht="100" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RM7922000201-235-S01.PRT</t>
+          <t>RM7922000201-235-SLIDING-HOLDER.ASM</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
     </row>
     <row r="126" ht="100" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-059.PRT</t>
+          <t>RM7922000201-235-SLIDING-HOLDER.PRT</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
     </row>
     <row r="127" ht="100" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>RM7922000201-235-S01.PRT</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
     </row>
     <row r="128" ht="100" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A052-L2_3.PRT</t>
+          <t>SCREW-60H141103-059.PRT</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
@@ -4313,16 +4256,16 @@
     <row r="129" ht="100" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-059.PRT</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4343,16 +4286,16 @@
     <row r="130" ht="100" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-061.PRT</t>
+          <t>RIVET-60H453232A052-L2_3.PRT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4373,28 +4316,28 @@
     <row r="131" ht="100" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>RM7922000201-LATCH-BKT-R-ASM.ASM</t>
+          <t>SCREW-60H141103-059.PRT</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -4403,16 +4346,16 @@
     <row r="132" ht="100" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RM7922000201-116-LATCH-BKT-R.ASM</t>
+          <t>SCREW-60H141103-061.PRT</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4433,7 +4376,7 @@
     <row r="133" ht="100" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>RM7922000201-116-LATCH-BKT-R.PRT</t>
+          <t>RM7922000201-LATCH-BKT-R-ASM.ASM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -4446,16 +4389,16 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
@@ -4463,7 +4406,7 @@
     <row r="134" ht="100" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RM7922000201-116-S01.PRT</t>
+          <t>RM7922000201-116-LATCH-BKT-R.ASM</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -4472,20 +4415,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
@@ -4493,16 +4436,16 @@
     <row r="135" ht="100" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RIVET-171-00012-200030.PRT</t>
+          <t>RM7922000201-116-LATCH-BKT-R.PRT</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4523,7 +4466,7 @@
     <row r="136" ht="100" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RM7922000201-188-LATCH-COVER-R.ASM</t>
+          <t>RM7922000201-116-S01.PRT</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -4532,20 +4475,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
@@ -4553,16 +4496,16 @@
     <row r="137" ht="100" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RM7922000201-188-LATCH-COVER-R.PRT</t>
+          <t>RIVET-171-00012-200030.PRT</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4583,7 +4526,7 @@
     <row r="138" ht="100" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RM7922000201-187-SUP-BRACKET-2.ASM</t>
+          <t>RM7922000201-188-LATCH-COVER-R.ASM</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4592,7 +4535,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4613,7 +4556,7 @@
     <row r="139" ht="100" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RM7922000201-187-SUP-BRACKET-2.PRT</t>
+          <t>RM7922000201-188-LATCH-COVER-R.PRT</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -4622,7 +4565,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -4643,7 +4586,7 @@
     <row r="140" ht="100" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RM7922000201-230-LATCH-SUP-BLOC.PRT</t>
+          <t>RM7922000201-187-SUP-BRACKET-2.ASM</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -4673,7 +4616,7 @@
     <row r="141" ht="100" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RM7922000201-112-LATCH-BT-R_MOD.ASM</t>
+          <t>RM7922000201-187-SUP-BRACKET-2.PRT</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -4686,16 +4629,16 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
@@ -4703,7 +4646,7 @@
     <row r="142" ht="100" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RM7922000201-112-LATCH-BT-R_MOD.PRT</t>
+          <t>RM7922000201-230-LATCH-SUP-BLOC.PRT</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -4716,16 +4659,16 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
@@ -4733,7 +4676,7 @@
     <row r="143" ht="100" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RM19808-AUTOLOCK.ASM</t>
+          <t>RM7922000201-112-LATCH-BT-R_MOD.ASM</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -4763,7 +4706,7 @@
     <row r="144" ht="100" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RM19808-AUTO-LOCKED-L_ASM.ASM</t>
+          <t>RM7922000201-112-LATCH-BT-R_MOD.PRT</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4793,7 +4736,7 @@
     <row r="145" ht="100" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ASSEM24.ASM</t>
+          <t>RM19808-AUTOLOCK.ASM</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -4806,24 +4749,24 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
     </row>
     <row r="146" ht="100" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>RM7922000201-113-LOCKED-BTM-L.ASM</t>
+          <t>RM19808-AUTO-LOCKED-L_ASM.ASM</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -4836,54 +4779,54 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
     </row>
     <row r="147" ht="100" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RM7922000201-113-S01.PRT</t>
+          <t>ASSEM24.ASM</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148" ht="100" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RM7922000201-113-LOCKED-BTM-L.PRT</t>
+          <t>RM7922000201-113-LOCKED-BTM-L.ASM</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -4896,54 +4839,54 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149" ht="100" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RM19808-315-LOCKED-SPRING.PRT</t>
+          <t>RM7922000201-113-S01.PRT</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="150" ht="100" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RM7922000201-114-LOCKED-TOP.ASM</t>
+          <t>RM7922000201-113-LOCKED-BTM-L.PRT</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -4956,24 +4899,24 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="151" ht="100" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RM7922000201-114-LOCKED-TOP.PRT</t>
+          <t>RM19808-315-LOCKED-SPRING.PRT</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -4986,33 +4929,33 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152" ht="100" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>RM7922000201-202-LOCK-SLIDE-ZN.PRT</t>
+          <t>RM7922000201-114-LOCKED-TOP.ASM</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5033,89 +4976,89 @@
     <row r="153" ht="100" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-059.PRT</t>
+          <t>RM7922000201-114-LOCKED-TOP.PRT</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="154" ht="100" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-061.PRT</t>
+          <t>RM7922000201-202-LOCK-SLIDE-ZN.PRT</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L154" t="inlineStr"/>
     </row>
     <row r="155" ht="100" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RIVET-171-00012-200030.PRT</t>
+          <t>SCREW-60H141103-059.PRT</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
@@ -5123,16 +5066,16 @@
     <row r="156" ht="100" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RIVET-L-6_2.PRT</t>
+          <t>SCREW-60H141103-061.PRT</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5153,28 +5096,28 @@
     <row r="157" ht="100" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RM7922000201-LATCH-BKT-L-ASM.ASM</t>
+          <t>RIVET-171-00012-200030.PRT</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -5183,16 +5126,16 @@
     <row r="158" ht="100" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RM7922000201-115-LATCH-BKT-L-NE.ASM</t>
+          <t>RIVET-L-6_2.PRT</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5213,7 +5156,7 @@
     <row r="159" ht="100" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RM7922000201-115-LATCH-BKT-L-NE.PRT</t>
+          <t>RM7922000201-LATCH-BKT-L-ASM.ASM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -5226,16 +5169,16 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
@@ -5243,7 +5186,7 @@
     <row r="160" ht="100" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RM7922000201-116-S01.PRT</t>
+          <t>RM7922000201-115-LATCH-BKT-L-NE.ASM</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -5252,20 +5195,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
@@ -5273,16 +5216,16 @@
     <row r="161" ht="100" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RIVET-171-00012-200030.PRT</t>
+          <t>RM7922000201-115-LATCH-BKT-L-NE.PRT</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -5303,7 +5246,7 @@
     <row r="162" ht="100" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RM7922000201-112-LATCH-BT-R_MOD.ASM</t>
+          <t>RM7922000201-116-S01.PRT</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -5316,16 +5259,16 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
@@ -5333,16 +5276,16 @@
     <row r="163" ht="100" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RM7922000201-112-LATCH-BT-R_MOD.PRT</t>
+          <t>RIVET-171-00012-200030.PRT</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5363,7 +5306,7 @@
     <row r="164" ht="100" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RM7922000201-230-LATCH-SUP-BLOC.PRT</t>
+          <t>RM7922000201-112-LATCH-BT-R_MOD.ASM</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -5393,7 +5336,7 @@
     <row r="165" ht="100" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RM7922000201-186-LATCH-COVER-L.ASM</t>
+          <t>RM7922000201-112-LATCH-BT-R_MOD.PRT</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -5402,20 +5345,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
@@ -5423,7 +5366,7 @@
     <row r="166" ht="100" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RM7922000201-186-LATCH-COVER-L.PRT</t>
+          <t>RM7922000201-230-LATCH-SUP-BLOC.PRT</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -5432,20 +5375,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
@@ -5453,7 +5396,7 @@
     <row r="167" ht="100" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RM7922000201-187-SUP-BRACKET-2.ASM</t>
+          <t>RM7922000201-186-LATCH-COVER-L.ASM</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -5462,7 +5405,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5483,7 +5426,7 @@
     <row r="168" ht="100" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RM7922000201-187-SUP-BRACKET-2.PRT</t>
+          <t>RM7922000201-186-LATCH-COVER-L.PRT</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -5492,7 +5435,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -5513,7 +5456,7 @@
     <row r="169" ht="100" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RM19808-AUTOLOCK.ASM</t>
+          <t>RM7922000201-187-SUP-BRACKET-2.ASM</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -5543,7 +5486,7 @@
     <row r="170" ht="100" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RM19808-AUTO-LOCKED-L_ASM.ASM</t>
+          <t>RM7922000201-187-SUP-BRACKET-2.PRT</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -5573,7 +5516,7 @@
     <row r="171" ht="100" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ASSEM24.ASM</t>
+          <t>RM19808-AUTOLOCK.ASM</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -5586,24 +5529,24 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
     </row>
     <row r="172" ht="100" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RM7922000201-113-LOCKED-BTM-L.ASM</t>
+          <t>RM19808-AUTO-LOCKED-L_ASM.ASM</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -5616,54 +5559,54 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
     </row>
     <row r="173" ht="100" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RM7922000201-113-S01.PRT</t>
+          <t>ASSEM24.ASM</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174" ht="100" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RM7922000201-113-LOCKED-BTM-L.PRT</t>
+          <t>RM7922000201-113-LOCKED-BTM-L.ASM</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -5676,54 +5619,54 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175" ht="100" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RM19808-315-LOCKED-SPRING.PRT</t>
+          <t>RM7922000201-113-S01.PRT</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="176" ht="100" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RM7922000201-114-LOCKED-TOP.ASM</t>
+          <t>RM7922000201-113-LOCKED-BTM-L.PRT</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -5736,24 +5679,24 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="177" ht="100" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RM7922000201-114-LOCKED-TOP.PRT</t>
+          <t>RM19808-315-LOCKED-SPRING.PRT</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -5766,33 +5709,33 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178" ht="100" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RM7922000201-202-LOCK-SLIDE-ZN.PRT</t>
+          <t>RM7922000201-114-LOCKED-TOP.ASM</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -5813,89 +5756,89 @@
     <row r="179" ht="100" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-059.PRT</t>
+          <t>RM7922000201-114-LOCKED-TOP.PRT</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="180" ht="100" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-061.PRT</t>
+          <t>RM7922000201-202-LOCK-SLIDE-ZN.PRT</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L180" t="inlineStr"/>
     </row>
     <row r="181" ht="100" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RIVET-171-00012-200030.PRT</t>
+          <t>SCREW-60H141103-059.PRT</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
@@ -5903,16 +5846,16 @@
     <row r="182" ht="100" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RIVET-L-6_2.PRT</t>
+          <t>SCREW-60H141103-061.PRT</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -5933,28 +5876,28 @@
     <row r="183" ht="100" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RM7922000201-CHASSIS-LATCH.ASM</t>
+          <t>RIVET-171-00012-200030.PRT</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -5963,16 +5906,16 @@
     <row r="184" ht="100" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RM7922000201-203-HANDLE-COVER.ASM</t>
+          <t>RIVET-L-6_2.PRT</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -5993,12 +5936,12 @@
     <row r="185" ht="100" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RM7922000201-203-HANDLE-COVER.PRT</t>
+          <t>RM7922000201-CHASSIS-LATCH.ASM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -6006,16 +5949,16 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
@@ -6023,29 +5966,29 @@
     <row r="186" ht="100" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>60H726103-701.PRT</t>
+          <t>RM7922000201-203-HANDLE-COVER.ASM</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
@@ -6053,16 +5996,16 @@
     <row r="187" ht="100" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RM7922-201-S01.PRT</t>
+          <t>RM7922000201-203-HANDLE-COVER.PRT</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -6083,7 +6026,7 @@
     <row r="188" ht="100" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RM7922000201-204-LATCH.ASM</t>
+          <t>60H726103-701.PRT</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -6092,20 +6035,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
@@ -6113,12 +6056,12 @@
     <row r="189" ht="100" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RM7922000201-204-LATCH.PRT</t>
+          <t>RM7922-201-S01.PRT</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6143,16 +6086,16 @@
     <row r="190" ht="100" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RM7922000201-205-HANDLE.ASM</t>
+          <t>RM7922000201-204-LATCH.ASM</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -6173,7 +6116,7 @@
     <row r="191" ht="100" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RM7922000201-205-HANDLE.PRT</t>
+          <t>RM7922000201-204-LATCH.PRT</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -6182,7 +6125,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6203,29 +6146,29 @@
     <row r="192" ht="100" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>60H726103-701.PRT</t>
+          <t>RM7922000201-205-HANDLE.ASM</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
@@ -6233,29 +6176,29 @@
     <row r="193" ht="100" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RM19302-301-HANDLE-SPRING.PRT</t>
+          <t>RM7922000201-205-HANDLE.PRT</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
@@ -6263,7 +6206,7 @@
     <row r="194" ht="100" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RM7922000201-317-SCREW-6-32X10.PRT</t>
+          <t>60H726103-701.PRT</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -6272,20 +6215,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
@@ -6293,7 +6236,7 @@
     <row r="195" ht="100" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-061.PRT</t>
+          <t>RM19302-301-HANDLE-SPRING.PRT</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -6302,7 +6245,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6323,16 +6266,16 @@
     <row r="196" ht="100" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>160-01000-000880-SCREW-632X8L.PRT</t>
+          <t>RM7922000201-317-SCREW-6-32X10.PRT</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -6353,7 +6296,7 @@
     <row r="197" ht="100" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RM79XXX-CHASSIS-HANDLE.ASM</t>
+          <t>SCREW-60H141103-061.PRT</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -6362,19 +6305,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -6383,7 +6326,7 @@
     <row r="198" ht="100" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RM7922000201-117-HANDLE-BKT.ASM</t>
+          <t>160-01000-000880-SCREW-632X8L.PRT</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -6413,12 +6356,12 @@
     <row r="199" ht="100" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RM7922000201-117-HANDLE-BKT.PRT</t>
+          <t>RM79XXX-CHASSIS-HANDLE.ASM</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -6426,16 +6369,16 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
@@ -6443,29 +6386,29 @@
     <row r="200" ht="100" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SI-0147-60H703000-109.PRT</t>
+          <t>RM7922000201-117-HANDLE-BKT.ASM</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
@@ -6473,7 +6416,7 @@
     <row r="201" ht="100" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>6R-72076-5_B_-20110527.PRT</t>
+          <t>RM7922000201-117-HANDLE-BKT.PRT</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -6486,16 +6429,16 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
@@ -6503,7 +6446,7 @@
     <row r="202" ht="100" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SCREW-60H141240-060.PRT</t>
+          <t>SI-0147-60H703000-109.PRT</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -6516,16 +6459,16 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
@@ -6533,28 +6476,28 @@
     <row r="203" ht="100" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>FAN-BAR-MODULE-SP.ASM</t>
+          <t>6R-72076-5_B_-20110527.PRT</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -6563,12 +6506,12 @@
     <row r="204" ht="100" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RM7922000201-118-FAN-BAR-01-SP.ASM</t>
+          <t>SCREW-60H141240-060.PRT</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -6593,12 +6536,12 @@
     <row r="205" ht="100" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RM7922000201-118-FAN-BAR-01-SP.PRT</t>
+          <t>FAN-BAR-MODULE-SP.ASM</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -6606,16 +6549,16 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
@@ -6623,29 +6566,29 @@
     <row r="206" ht="100" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RM7922000201-118-S01.PRT</t>
+          <t>RM7922000201-118-FAN-BAR-01-SP.ASM</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
@@ -6653,29 +6596,29 @@
     <row r="207" ht="100" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RM7922000201-119-FAN-BAR-02-SP.ASM</t>
+          <t>RM7922000201-118-FAN-BAR-01-SP.PRT</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
@@ -6683,16 +6626,16 @@
     <row r="208" ht="100" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RM7922000201-119-FAN-BAR-02-SP.PRT</t>
+          <t>RM7922000201-118-S01.PRT</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -6713,29 +6656,29 @@
     <row r="209" ht="100" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>27-420-501-6_B_FASTENED_2020818.PRT</t>
+          <t>RM7922000201-119-FAN-BAR-02-SP.ASM</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
@@ -6743,29 +6686,29 @@
     <row r="210" ht="100" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RM7922000201-120-FAN-PAR-OP1-SP.PRT</t>
+          <t>RM7922000201-119-FAN-BAR-02-SP.PRT</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
@@ -6773,29 +6716,29 @@
     <row r="211" ht="100" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RM7922000201-121-BAR-SUP-BKT-L.ASM</t>
+          <t>27-420-501-6_B_FASTENED_2020818.PRT</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
@@ -6803,29 +6746,29 @@
     <row r="212" ht="100" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RM7922000201-121-BAR-SUP-BKT-L.PRT</t>
+          <t>RM7922000201-120-FAN-PAR-OP1-SP.PRT</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
@@ -6833,7 +6776,7 @@
     <row r="213" ht="100" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>27-420-501-6_B_FASTENED_2020818.PRT</t>
+          <t>RM7922000201-121-BAR-SUP-BKT-L.ASM</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -6842,20 +6785,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
@@ -6863,7 +6806,7 @@
     <row r="214" ht="100" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RM7922000201-122-BAR-SUP-BKT-R.ASM</t>
+          <t>RM7922000201-121-BAR-SUP-BKT-L.PRT</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -6876,16 +6819,16 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
@@ -6893,7 +6836,7 @@
     <row r="215" ht="100" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RM7922000201-122-BAR-SUP-BKT-R.PRT</t>
+          <t>27-420-501-6_B_FASTENED_2020818.PRT</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -6902,7 +6845,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -6923,7 +6866,7 @@
     <row r="216" ht="100" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>27-420-501-6_B_FASTENED_2020818.PRT</t>
+          <t>RM7922000201-122-BAR-SUP-BKT-R.ASM</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -6932,20 +6875,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
@@ -6953,7 +6896,7 @@
     <row r="217" ht="100" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RM7922000201-172-FAN-SUP-BKT.PRT</t>
+          <t>RM7922000201-122-BAR-SUP-BKT-R.PRT</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -6966,16 +6909,16 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
@@ -6983,7 +6926,7 @@
     <row r="218" ht="100" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RM7922000201-189-FAN-BKT-L.PRT</t>
+          <t>27-420-501-6_B_FASTENED_2020818.PRT</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -6992,20 +6935,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
@@ -7013,7 +6956,7 @@
     <row r="219" ht="100" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RM7922000201-190-FAN-BKT-R.PRT</t>
+          <t>RM7922000201-172-FAN-SUP-BKT.PRT</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -7043,16 +6986,16 @@
     <row r="220" ht="100" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>THUMBSCREW_BLOCK.PRT</t>
+          <t>RM7922000201-189-FAN-BKT-L.PRT</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -7073,16 +7016,16 @@
     <row r="221" ht="100" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RIVET-60H453232A021.PRT</t>
+          <t>RM7922000201-190-FAN-BKT-R.PRT</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -7103,28 +7046,28 @@
     <row r="222" ht="100" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RM7922000201-231-BP-MODULE-STOP.PRT</t>
+          <t>THUMBSCREW_BLOCK.PRT</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -7133,28 +7076,28 @@
     <row r="223" ht="100" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RM7922000201-250-TRAY-GUIDE.ASM</t>
+          <t>RIVET-60H453232A021.PRT</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>497</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -7163,12 +7106,12 @@
     <row r="224" ht="100" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RM7922000201-250-TRAY-GUIDE.PRT</t>
+          <t>RM7922000201-231-BP-MODULE-STOP.PRT</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -7176,15 +7119,15 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -7193,28 +7136,28 @@
     <row r="225" ht="100" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RM7922000201-250-S01.PRT</t>
+          <t>RM7922000201-250-TRAY-GUIDE.ASM</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -7223,12 +7166,12 @@
     <row r="226" ht="100" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>RM7922000201-251-STOPER-METAL.PRT</t>
+          <t>RM7922000201-250-TRAY-GUIDE.PRT</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -7236,15 +7179,15 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -7253,28 +7196,28 @@
     <row r="227" ht="100" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>RM7922000201-198-STOPER-SUP-BKT.ASM</t>
+          <t>RM7922000201-250-S01.PRT</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -7283,12 +7226,12 @@
     <row r="228" ht="100" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>RM7922000201-198-STOPER-SUP-BKT.PRT</t>
+          <t>RM7922000201-251-STOPER-METAL.PRT</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -7296,15 +7239,15 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -7313,28 +7256,28 @@
     <row r="229" ht="100" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>9317012-152-B-M5-1ZI-4.PRT</t>
+          <t>RM7922000201-198-STOPER-SUP-BKT.ASM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -7343,28 +7286,28 @@
     <row r="230" ht="100" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SCREW-60H141103-061.PRT</t>
+          <t>RM7922000201-198-STOPER-SUP-BKT.PRT</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
@@ -7373,28 +7316,28 @@
     <row r="231" ht="100" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SCREW-M5-60H123250-161.PRT</t>
+          <t>9317012-152-B-M5-1ZI-4.PRT</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
@@ -7403,16 +7346,16 @@
     <row r="232" ht="100" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SCREW-M5-160-10101-101000.PRT</t>
+          <t>SCREW-60H141103-061.PRT</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -7430,6 +7373,66 @@
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
     </row>
+    <row r="233" ht="100" customHeight="1">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>SCREW-M5-60H123250-161.PRT</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>12</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1</v>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+    </row>
+    <row r="234" ht="100" customHeight="1">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>SCREW-M5-160-10101-101000.PRT</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>4</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
